--- a/Project Workbooks/V2 NCAA Player Scouter - Archetype Doc.xlsx
+++ b/Project Workbooks/V2 NCAA Player Scouter - Archetype Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezei\OneDrive\Documents\Data Projects\NCAA Scouter\Project Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA118EE9-CF55-449A-9D00-666F56BD3E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B86B96-B1F6-41B4-8121-BFED7DEC4DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{27010FF9-80BE-42E1-9122-CB8E2EDCD8CD}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <sheet name="D3" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="313">
   <si>
     <t>Archetype</t>
   </si>
@@ -1332,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,11 +1473,43 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1581,7 +1612,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:J61" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
     <sortCondition ref="A1:A61"/>
@@ -1901,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F764D6-26E7-4916-92C7-00306C227AAD}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1920,7 +1951,7 @@
     <col min="9" max="10" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1983,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1978,8 +2009,14 @@
       <c r="H2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2005,8 +2042,14 @@
       <c r="H3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2032,8 +2075,14 @@
       <c r="H4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2059,8 +2108,14 @@
       <c r="H5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2086,8 +2141,14 @@
       <c r="H6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2113,8 +2174,14 @@
       <c r="H7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2140,8 +2207,14 @@
       <c r="H8" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2167,8 +2240,14 @@
       <c r="H9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2191,8 +2270,14 @@
       <c r="G10">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2215,8 +2300,14 @@
       <c r="G11">
         <v>473</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2239,8 +2330,14 @@
       <c r="G12">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2360,14 @@
       <c r="G13">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2287,8 +2390,14 @@
       <c r="G14">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2420,14 @@
       <c r="G15">
         <v>628</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2335,8 +2450,14 @@
       <c r="G16">
         <v>851</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -2359,8 +2480,14 @@
       <c r="G17">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2383,8 +2510,14 @@
       <c r="G18">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2407,8 +2540,14 @@
       <c r="G19">
         <v>473</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2431,8 +2570,14 @@
       <c r="G20">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2455,8 +2600,14 @@
       <c r="G21">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2479,8 +2630,14 @@
       <c r="G22">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2503,8 +2660,14 @@
       <c r="G23">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2527,8 +2690,14 @@
       <c r="G24">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2551,8 +2720,14 @@
       <c r="G25">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -2575,8 +2750,14 @@
       <c r="G26">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2599,8 +2780,14 @@
       <c r="G27">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2623,8 +2810,14 @@
       <c r="G28">
         <v>136</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2647,8 +2840,14 @@
       <c r="G29">
         <v>143</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2671,8 +2870,14 @@
       <c r="G30">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2695,8 +2900,14 @@
       <c r="G31">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2719,8 +2930,14 @@
       <c r="G32">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2743,8 +2960,14 @@
       <c r="G33">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2755,7 +2978,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D65" si="1">CONCATENATE(B34,C34)</f>
+        <f t="shared" ref="D34:D61" si="1">CONCATENATE(B34,C34)</f>
         <v>Assist TO RatioField Goal %</v>
       </c>
       <c r="E34" t="s">
@@ -2767,8 +2990,14 @@
       <c r="G34">
         <v>141</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2791,8 +3020,14 @@
       <c r="G35">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2815,8 +3050,14 @@
       <c r="G36">
         <v>858</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3080,14 @@
       <c r="G37">
         <v>856</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -2863,8 +3110,14 @@
       <c r="G38">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -2887,8 +3140,14 @@
       <c r="G39">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2911,8 +3170,14 @@
       <c r="G40">
         <v>473</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" s="51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2935,8 +3200,14 @@
       <c r="G41">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3230,14 @@
       <c r="G42">
         <v>600</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2983,8 +3260,14 @@
       <c r="G43">
         <v>621</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3007,8 +3290,14 @@
       <c r="G44">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M44" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3031,8 +3320,14 @@
       <c r="G45">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="M45" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3055,8 +3350,14 @@
       <c r="G46">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3079,8 +3380,14 @@
       <c r="G47">
         <v>473</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3103,8 +3410,14 @@
       <c r="G48">
         <v>138</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3127,8 +3440,14 @@
       <c r="G49">
         <v>138</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -3151,8 +3470,14 @@
       <c r="G50">
         <v>600</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -3175,8 +3500,14 @@
       <c r="G51">
         <v>601</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51" s="52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -3199,8 +3530,14 @@
       <c r="G52">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="M52" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -3223,8 +3560,14 @@
       <c r="G53">
         <v>137</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -3247,8 +3590,14 @@
       <c r="G54">
         <v>139</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="M54" s="51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -3271,8 +3620,14 @@
       <c r="G55">
         <v>473</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -3295,8 +3650,14 @@
       <c r="G56">
         <v>138</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -3319,8 +3680,14 @@
       <c r="G57">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="M57" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3343,8 +3710,14 @@
       <c r="G58">
         <v>621</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" s="51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3367,8 +3740,14 @@
       <c r="G59">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3391,8 +3770,14 @@
       <c r="G60">
         <v>611</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M60" s="51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -3415,17 +3800,29 @@
       <c r="G61">
         <v>144</v>
       </c>
+      <c r="L61" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="M61" s="52" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D61">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L61">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M61">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10016,10 +10413,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11445,11 +11842,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Project Workbooks/V2 NCAA Player Scouter - Archetype Doc.xlsx
+++ b/Project Workbooks/V2 NCAA Player Scouter - Archetype Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezei\OneDrive\Documents\Data Projects\NCAA Scouter\Project Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B86B96-B1F6-41B4-8121-BFED7DEC4DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED417C-78CC-4C48-A767-0E4FCB3A31B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{27010FF9-80BE-42E1-9122-CB8E2EDCD8CD}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="319">
   <si>
     <t>Archetype</t>
   </si>
@@ -984,6 +984,24 @@
   <si>
     <t>Index</t>
   </si>
+  <si>
+    <t>Field Goals Made</t>
+  </si>
+  <si>
+    <t>3 Field Goals Made</t>
+  </si>
+  <si>
+    <t>3PT Field Goals Made</t>
+  </si>
+  <si>
+    <t>Field Goals Attempted</t>
+  </si>
+  <si>
+    <t>3PT Field Goals Attempted</t>
+  </si>
+  <si>
+    <t>Total Field Goals</t>
+  </si>
 </sst>
 </file>
 
@@ -1331,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1473,23 +1491,11 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1612,7 +1618,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:J61" xr:uid="{49183440-748A-4E96-85B9-2BD921C2DDC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
     <sortCondition ref="A1:A61"/>
@@ -1932,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F764D6-26E7-4916-92C7-00306C227AAD}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M61"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1949,9 +1955,11 @@
     <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.21875" customWidth="1"/>
     <col min="9" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2009,14 +2017,24 @@
       <c r="H2" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>CONCATENATE(L2," = Primary: ",O2," | Secondary: ",P2)</f>
+        <v>2-Way Sharpshooter = Primary: Steals Per Game | Secondary: 3PT Field Goals Made</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2042,14 +2060,24 @@
       <c r="H3" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q61" si="1">CONCATENATE(L3," = Primary: ",O3," | Secondary: ",P3)</f>
+        <v>3 &amp; D = Primary: 3PT% | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2075,14 +2103,24 @@
       <c r="H4" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>Clock Stopper = Primary: Free Throw Attempts | Secondary: Minutes Per Game</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2108,14 +2146,24 @@
       <c r="H5" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>303</v>
+      </c>
+      <c r="P5" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>Defensive Threat (Packer) = Primary: Total Blocks | Secondary: Total Steals</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2141,14 +2189,24 @@
       <c r="H6" t="s">
         <v>193</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>304</v>
+      </c>
+      <c r="P6" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>Defensive Threat (Snatcher) = Primary: Total Steals | Secondary: Total Blocks</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2174,14 +2232,24 @@
       <c r="H7" t="s">
         <v>193</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M7" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Foul-Magnet = Primary: Double Doubles | Secondary: Free Throw Attempts</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2207,14 +2275,24 @@
       <c r="H8" t="s">
         <v>193</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Free Throw Ace = Primary: Double Doubles | Secondary: FT %</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2240,14 +2318,24 @@
       <c r="H9" t="s">
         <v>193</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Glass Cleaner = Primary: Double Doubles | Secondary: Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2270,14 +2358,24 @@
       <c r="G10">
         <v>139</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Lockdown = Primary: Double Doubles | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2300,14 +2398,24 @@
       <c r="G11">
         <v>473</v>
       </c>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Playmaker = Primary: Double Doubles | Secondary: Assists TO Ratio</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2330,14 +2438,24 @@
       <c r="G12">
         <v>138</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>162</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Rim Protector = Primary: Double Doubles | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2360,14 +2478,24 @@
       <c r="G13">
         <v>136</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Scorer = Primary: Double Doubles | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2390,14 +2518,24 @@
       <c r="G14">
         <v>143</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>Double Down Sniper = Primary: Double Doubles | Secondary: 3PT%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2420,14 +2558,24 @@
       <c r="G15">
         <v>628</v>
       </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="52" t="s">
+      <c r="M15" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>Floor General = Primary: Assists Per Game | Secondary: Minutes Per Game</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2450,14 +2598,24 @@
       <c r="G16">
         <v>851</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>Free Throw Ace = Primary: FT% | Secondary: Free Throw Attempts</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -2480,14 +2638,24 @@
       <c r="G17">
         <v>136</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="52" t="s">
+      <c r="M17" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>303</v>
+      </c>
+      <c r="P17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>Glass Cleaning Scorer = Primary: Total Blocks | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2510,14 +2678,24 @@
       <c r="G18">
         <v>138</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v>Glass Cleaning Lockdown = Primary: Rebounds Per Game | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -2540,14 +2718,24 @@
       <c r="G19">
         <v>473</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>Glass Cleaning Playmaker = Primary: Rebounds Per Game | Secondary: Assist TO Ratio</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2570,14 +2758,24 @@
       <c r="G20">
         <v>139</v>
       </c>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>Glass Cleaning Pickpocket = Primary: Rebounds Per Game | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2600,14 +2798,24 @@
       <c r="G21">
         <v>140</v>
       </c>
-      <c r="L21" s="52" t="s">
+      <c r="L21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>High Efficiency Dimer = Primary: FG% | Secondary: Assists Per Game</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2630,14 +2838,24 @@
       <c r="G22">
         <v>137</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>High Efficiency Glass Cleaner = Primary: FG% | Secondary: Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2660,14 +2878,24 @@
       <c r="G23">
         <v>139</v>
       </c>
-      <c r="L23" s="52" t="s">
+      <c r="L23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="M23" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>High Efficiency Snatcher = Primary: FG% | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2690,14 +2918,24 @@
       <c r="G24">
         <v>143</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v>High Efficiency Sniper = Primary: FG% | Secondary: 3PT%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2720,14 +2958,24 @@
       <c r="G25">
         <v>141</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="M25" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="1"/>
+        <v>Inside Form Shooter (FG) = Primary: FT% | Secondary: FG%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -2750,14 +2998,24 @@
       <c r="G26">
         <v>136</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M26" s="51" t="s">
+      <c r="M26" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>313</v>
+      </c>
+      <c r="P26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Shot Creator = Primary: Field Goals Made | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2780,14 +3038,24 @@
       <c r="G27">
         <v>140</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="M27" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="1"/>
+        <v>Lockdown Playmaker = Primary: Steals Per Game | Secondary: Assists Per Game</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -2810,14 +3078,24 @@
       <c r="G28">
         <v>136</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="1"/>
+        <v>Lockdown Scorer = Primary: Steals Per Game | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2840,14 +3118,24 @@
       <c r="G29">
         <v>143</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="M29" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="1"/>
+        <v>Outside Form Shooter (3FG) = Primary: FT% | Secondary: 3PT%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2870,14 +3158,24 @@
       <c r="G30">
         <v>137</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Glass Cleaner = Primary: Assist TO Ratio | Secondary: Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2900,14 +3198,24 @@
       <c r="G31">
         <v>139</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="M31" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Lockdown = Primary: Assist TO Ratio | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2930,14 +3238,24 @@
       <c r="G32">
         <v>138</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="51" t="s">
+      <c r="M32" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Rim Protector = Primary: Assist TO Ratio | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2960,14 +3278,24 @@
       <c r="G33">
         <v>136</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Scorer = Primary: Assist TO Ratio | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2978,7 +3306,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D61" si="1">CONCATENATE(B34,C34)</f>
+        <f t="shared" ref="D34:D61" si="2">CONCATENATE(B34,C34)</f>
         <v>Assist TO RatioField Goal %</v>
       </c>
       <c r="E34" t="s">
@@ -2990,14 +3318,24 @@
       <c r="G34">
         <v>141</v>
       </c>
-      <c r="L34" s="51" t="s">
+      <c r="L34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="51" t="s">
+      <c r="M34" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Shot Creator = Primary: Assist TO Ratio | Secondary: Field Goal %</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -3008,7 +3346,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assist TO Ratio3PT PG</v>
       </c>
       <c r="E35" t="s">
@@ -3020,14 +3358,24 @@
       <c r="G35">
         <v>144</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="M35" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
+        <v>Playmaking Sniper = Primary: Assist TO Ratio | Secondary: 3PT Per Game</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3038,7 +3386,7 @@
         <v>53</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ReboundsDefensive Rebounds PG</v>
       </c>
       <c r="E36" t="s">
@@ -3050,14 +3398,24 @@
       <c r="G36">
         <v>858</v>
       </c>
-      <c r="L36" s="51" t="s">
+      <c r="L36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="51" t="s">
+      <c r="M36" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>305</v>
+      </c>
+      <c r="P36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Glass Cleaner (Defensive) = Primary: Total Rebounds | Secondary: Defensive Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3068,7 +3426,7 @@
         <v>55</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ReboundsOffensive Rebounds PG</v>
       </c>
       <c r="E37" t="s">
@@ -3080,14 +3438,24 @@
       <c r="G37">
         <v>856</v>
       </c>
-      <c r="L37" s="52" t="s">
+      <c r="L37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="M37" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>305</v>
+      </c>
+      <c r="P37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Glass Cleaner (Offensive) = Primary: Total Rebounds | Secondary: Offensive Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3098,7 +3466,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>StealsBlocks PG</v>
       </c>
       <c r="E38" t="s">
@@ -3110,14 +3478,24 @@
       <c r="G38">
         <v>138</v>
       </c>
-      <c r="L38" s="51" t="s">
+      <c r="L38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M38" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>304</v>
+      </c>
+      <c r="P38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Lockdown = Primary: Total Steals | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3128,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>StealsSteals PG</v>
       </c>
       <c r="E39" t="s">
@@ -3140,14 +3518,24 @@
       <c r="G39">
         <v>139</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="52" t="s">
+      <c r="M39" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>304</v>
+      </c>
+      <c r="P39" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Pickpocket = Primary: Total Steals | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3158,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assists PGAssist TO Ratio</v>
       </c>
       <c r="E40" t="s">
@@ -3170,14 +3558,24 @@
       <c r="G40">
         <v>473</v>
       </c>
-      <c r="L40" s="51" t="s">
+      <c r="L40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M40" s="51" t="s">
+      <c r="M40" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O40" t="s">
+        <v>160</v>
+      </c>
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Playmaker = Primary: Assists Per Game | Secondary: Assist TO Ratio</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3188,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BlocksBlocks PG</v>
       </c>
       <c r="E41" t="s">
@@ -3200,14 +3598,24 @@
       <c r="G41">
         <v>138</v>
       </c>
-      <c r="L41" s="52" t="s">
+      <c r="L41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="52" t="s">
+      <c r="M41" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>303</v>
+      </c>
+      <c r="P41" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Rim Protector = Primary: Total Blocks | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3218,7 +3626,7 @@
         <v>61</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Points PGPoints</v>
       </c>
       <c r="E42" t="s">
@@ -3230,14 +3638,24 @@
       <c r="G42">
         <v>600</v>
       </c>
-      <c r="L42" s="51" t="s">
+      <c r="L42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M42" s="51" t="s">
+      <c r="M42" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O42" t="s">
+        <v>170</v>
+      </c>
+      <c r="P42" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Scoring Machine = Primary: Points Per Game | Secondary: Total Points</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3248,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3PT%3FGM</v>
       </c>
       <c r="E43" t="s">
@@ -3260,14 +3678,24 @@
       <c r="G43">
         <v>621</v>
       </c>
-      <c r="L43" s="52" t="s">
+      <c r="L43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="52" t="s">
+      <c r="M43" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O43" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Sharpshooter (Deadeye) = Primary: 3PT% | Secondary: 3 Field Goals Made</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3278,7 +3706,7 @@
         <v>50</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3PT%3PT PG</v>
       </c>
       <c r="E44" t="s">
@@ -3290,14 +3718,24 @@
       <c r="G44">
         <v>144</v>
       </c>
-      <c r="L44" s="51" t="s">
+      <c r="L44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="51" t="s">
+      <c r="M44" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="1"/>
+        <v>Pure Sharpshooter (Sniper) = Primary: 3PT% | Secondary: 3PT Per Game</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3308,7 +3746,7 @@
         <v>20</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Points PGRebounds PG</v>
       </c>
       <c r="E45" t="s">
@@ -3320,14 +3758,24 @@
       <c r="G45">
         <v>137</v>
       </c>
-      <c r="L45" s="52" t="s">
+      <c r="L45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="52" t="s">
+      <c r="M45" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O45" t="s">
+        <v>170</v>
+      </c>
+      <c r="P45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="1"/>
+        <v>Scoring Glass Cleaner = Primary: Points Per Game | Secondary: Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3338,7 +3786,7 @@
         <v>27</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FG %Points PG</v>
       </c>
       <c r="E46" t="s">
@@ -3350,14 +3798,24 @@
       <c r="G46">
         <v>136</v>
       </c>
-      <c r="L46" s="51" t="s">
+      <c r="L46" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M46" s="51" t="s">
+      <c r="M46" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="1"/>
+        <v>Scoring Machine = Primary: FG % | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -3368,7 +3826,7 @@
         <v>41</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Points PGAssist TO Ratio</v>
       </c>
       <c r="E47" t="s">
@@ -3380,14 +3838,24 @@
       <c r="G47">
         <v>473</v>
       </c>
-      <c r="L47" s="52" t="s">
+      <c r="L47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M47" s="52" t="s">
+      <c r="M47" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O47" t="s">
+        <v>170</v>
+      </c>
+      <c r="P47" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="1"/>
+        <v>Scoring Playmaker = Primary: Points Per Game | Secondary: Assist TO Ratio</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3398,7 +3866,7 @@
         <v>25</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Points PGBlocks PG</v>
       </c>
       <c r="E48" t="s">
@@ -3410,14 +3878,24 @@
       <c r="G48">
         <v>138</v>
       </c>
-      <c r="L48" s="51" t="s">
+      <c r="L48" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M48" s="51" t="s">
+      <c r="M48" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O48" t="s">
+        <v>170</v>
+      </c>
+      <c r="P48" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="1"/>
+        <v>Scoring Rim Protector = Primary: Points Per Game | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3428,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Steals PGBlocks PG</v>
       </c>
       <c r="E49" t="s">
@@ -3440,14 +3918,24 @@
       <c r="G49">
         <v>138</v>
       </c>
-      <c r="L49" s="52" t="s">
+      <c r="L49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="52" t="s">
+      <c r="M49" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>174</v>
+      </c>
+      <c r="P49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="1"/>
+        <v>Scrappy Rim Protector = Primary: Steals Per Game | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -3458,7 +3946,7 @@
         <v>61</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Steals PGPoints</v>
       </c>
       <c r="E50" t="s">
@@ -3470,14 +3958,24 @@
       <c r="G50">
         <v>600</v>
       </c>
-      <c r="L50" s="51" t="s">
+      <c r="L50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M50" s="51" t="s">
+      <c r="M50" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>174</v>
+      </c>
+      <c r="P50" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="1"/>
+        <v>Scrappy Scorer = Primary: Steals Per Game | Secondary: Total Points</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -3488,7 +3986,7 @@
         <v>52</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3FGMRebounds</v>
       </c>
       <c r="E51" t="s">
@@ -3500,14 +3998,24 @@
       <c r="G51">
         <v>601</v>
       </c>
-      <c r="L51" s="52" t="s">
+      <c r="L51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M51" s="52" t="s">
+      <c r="M51" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>315</v>
+      </c>
+      <c r="P51" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="1"/>
+        <v>Stretch Glass Cleaner = Primary: 3PT Field Goals Made | Secondary: Total Rebounds</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -3518,7 +4026,7 @@
         <v>25</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3FGMBlocks PG</v>
       </c>
       <c r="E52" t="s">
@@ -3530,14 +4038,24 @@
       <c r="G52">
         <v>138</v>
       </c>
-      <c r="L52" s="51" t="s">
+      <c r="L52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>315</v>
+      </c>
+      <c r="P52" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="1"/>
+        <v>Stretch Rim Protector = Primary: 3PT Field Goals Made | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -3548,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Minutes PGRebounds PG</v>
       </c>
       <c r="E53" t="s">
@@ -3560,14 +4078,24 @@
       <c r="G53">
         <v>137</v>
       </c>
-      <c r="L53" s="52" t="s">
+      <c r="L53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M53" s="52" t="s">
+      <c r="M53" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O53" t="s">
+        <v>169</v>
+      </c>
+      <c r="P53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="1"/>
+        <v>Tempo Glass Cleaner = Primary: Minutes Per Game | Secondary: Rebounds Per Game</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -3578,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Minutes PGSteals PG</v>
       </c>
       <c r="E54" t="s">
@@ -3590,14 +4118,24 @@
       <c r="G54">
         <v>139</v>
       </c>
-      <c r="L54" s="51" t="s">
+      <c r="L54" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M54" s="51" t="s">
+      <c r="M54" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O54" t="s">
+        <v>169</v>
+      </c>
+      <c r="P54" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="1"/>
+        <v>Tempo Lockdown = Primary: Minutes Per Game | Secondary: Steals Per Game</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +4146,7 @@
         <v>41</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Minutes PGAssist TO Ratio</v>
       </c>
       <c r="E55" t="s">
@@ -3620,14 +4158,24 @@
       <c r="G55">
         <v>473</v>
       </c>
-      <c r="L55" s="52" t="s">
+      <c r="L55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M55" s="52" t="s">
+      <c r="M55" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O55" t="s">
+        <v>169</v>
+      </c>
+      <c r="P55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="1"/>
+        <v>Tempo Playmaker = Primary: Minutes Per Game | Secondary: Assist TO Ratio</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -3638,7 +4186,7 @@
         <v>25</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Minutes PGBlocks PG</v>
       </c>
       <c r="E56" t="s">
@@ -3650,14 +4198,24 @@
       <c r="G56">
         <v>138</v>
       </c>
-      <c r="L56" s="51" t="s">
+      <c r="L56" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M56" s="51" t="s">
+      <c r="M56" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O56" t="s">
+        <v>169</v>
+      </c>
+      <c r="P56" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="1"/>
+        <v>Tempo Rim Protector = Primary: Minutes Per Game | Secondary: Blocks Per Game</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -3668,7 +4226,7 @@
         <v>27</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Minutes PGPoints PG</v>
       </c>
       <c r="E57" t="s">
@@ -3680,14 +4238,24 @@
       <c r="G57">
         <v>136</v>
       </c>
-      <c r="L57" s="52" t="s">
+      <c r="L57" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M57" s="52" t="s">
+      <c r="M57" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O57" t="s">
+        <v>169</v>
+      </c>
+      <c r="P57" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="1"/>
+        <v>Tempo Scorer = Primary: Minutes Per Game | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -3698,7 +4266,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3FGA3FGM</v>
       </c>
       <c r="E58" t="s">
@@ -3710,14 +4278,24 @@
       <c r="G58">
         <v>621</v>
       </c>
-      <c r="L58" s="51" t="s">
+      <c r="L58" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M58" s="51" t="s">
+      <c r="M58" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O58" t="s">
+        <v>317</v>
+      </c>
+      <c r="P58" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="1"/>
+        <v>Volume 3PT Shooter = Primary: 3PT Field Goals Attempted | Secondary: 3PT Field Goals Made</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -3728,7 +4306,7 @@
         <v>27</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FGAPoints PG</v>
       </c>
       <c r="E59" t="s">
@@ -3740,14 +4318,24 @@
       <c r="G59">
         <v>136</v>
       </c>
-      <c r="L59" s="52" t="s">
+      <c r="L59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M59" s="52" t="s">
+      <c r="M59" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" t="s">
+        <v>316</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="1"/>
+        <v>Volume Scorer = Primary: Field Goals Attempted | Secondary: Points Per Game</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -3758,7 +4346,7 @@
         <v>80</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FGAFG</v>
       </c>
       <c r="E60" t="s">
@@ -3770,14 +4358,24 @@
       <c r="G60">
         <v>611</v>
       </c>
-      <c r="L60" s="51" t="s">
+      <c r="L60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M60" s="51" t="s">
+      <c r="M60" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O60" t="s">
+        <v>316</v>
+      </c>
+      <c r="P60" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="1"/>
+        <v>Volume Shooter = Primary: Field Goals Attempted | Secondary: Total Field Goals</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -3788,7 +4386,7 @@
         <v>50</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Assists PG3PT PG</v>
       </c>
       <c r="E61" t="s">
@@ -3800,29 +4398,39 @@
       <c r="G61">
         <v>144</v>
       </c>
-      <c r="L61" s="52" t="s">
+      <c r="L61" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M61" s="52" t="s">
+      <c r="M61" s="4" t="s">
         <v>117</v>
+      </c>
+      <c r="O61" t="s">
+        <v>160</v>
+      </c>
+      <c r="P61" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="1"/>
+        <v>Wing God = Primary: Assists Per Game | Secondary: 3PT Per Game</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D61">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L61">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M61">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10413,10 +11021,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11843,10 +12451,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
